--- a/medicine/Enfance/Astrid_(film)/Astrid_(film).xlsx
+++ b/medicine/Enfance/Astrid_(film)/Astrid_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrid (Unga Astrid) est un drame historique dano-germano-suédois réalisé par Pernille Fischer Christensen, sorti en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1920, Astrid Lindgren est une jeune fille de 16 ans, fille d'une famille nombreuse de modestes et très croyants paysans suédois. La vie au village est rythmée par les travaux des champs et la messe dominicale, dans la plus pure tradition ancestrale. 
 Repérée pour ses talents littéraires, Astrid décroche un travail de secrétaire dans un journal local. Curieuse, enthousiaste et prête à vivre une vie libérée, elle donne rapidement satisfaction dans son nouveau travail à son patron Reinhold Blomberg, rédacteur en chef du magazine Vimmerby, de 25 ans son ainé. Celui-ci, plongé dans des ennuis conjugaux, tombe rapidement sous le charme d'Astrid en recherche d'amour, malgré leur grande différence d'âge. Après une relation imprudente avec lui, elle tombe enceinte. La famille d'Astrid ne peut tolérer qu'elle montre sa grossesse et cette relation honteuse dans le village. Elle est forcée d'aller accoucher au Danemark puis de confier son enfant à Marie, une nourrice danoise bienveillante. Blomberg promet de régler rapidement son divorce, d'épouser Astrid et de lui permettre de retrouver son petit garçon Lasse. Mais le divorce s'annonce long et compliqué, et Astrid, le cœur brisé, sent son fils grandir sans elle.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Astrid
 Titre original : Unga Astrid
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alba August : Astrid Lindgren, la jeune femme, future écrivaine
 Maria Bonnevie : Hanna, la mère d'Astrid
